--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1978.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1978.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.018*"import" + 0.016*"foreign" + 0.015*"bank" + 0.014*"exchange" + 0.013*"may" + 0.012*"export" + 0.010*"currency" + 0.010*"per" + 0.009*"account" + 0.009*"payment"</t>
-  </si>
-  <si>
-    <t>0.002*"import" + 0.001*"bank" + 0.001*"foreign" + 0.001*"may" + 0.001*"per" + 0.001*"exchange" + 0.001*"export" + 0.001*"account" + 0.001*"currency" + 0.001*"country"</t>
-  </si>
-  <si>
-    <t>0.002*"import" + 0.002*"foreign" + 0.002*"exchange" + 0.001*"bank" + 0.001*"currency" + 0.001*"per" + 0.001*"export" + 0.001*"payment" + 0.001*"account" + 0.001*"may"</t>
-  </si>
-  <si>
-    <t>0.005*"foreign" + 0.004*"import" + 0.004*"export" + 0.003*"bank" + 0.003*"exchange" + 0.003*"currency" + 0.003*"may" + 0.003*"account" + 0.002*"per" + 0.002*"country"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.002*"foreign" + 0.002*"bank" + 0.002*"may" + 0.002*"import" + 0.001*"currency" + 0.001*"export" + 0.001*"payment" + 0.001*"per" + 0.001*"country"</t>
+    <t>0.025*"foreign" + 0.022*"exchange" + 0.020*"capital" + 0.019*"control" + 0.016*"abroad" + 0.016*"investment" + 0.012*"transfer" + 0.011*"bank" + 0.010*"travel" + 0.010*"resident"</t>
+  </si>
+  <si>
+    <t>0.037*"import" + 0.022*"certain" + 0.020*"good" + 0.016*"year" + 0.014*"south" + 0.013*"redistribution" + 0.012*"december" + 0.012*"however" + 0.012*"prohibit" + 0.012*"rhodesia"</t>
+  </si>
+  <si>
+    <t>0.042*"may" + 0.041*"currency" + 0.036*"account" + 0.035*"bank" + 0.028*"foreign" + 0.025*"payment" + 0.020*"country" + 0.015*"resident" + 0.014*"nonresident" + 0.014*"exchange"</t>
+  </si>
+  <si>
+    <t>0.075*"export" + 0.034*"gold" + 0.029*"proceeds" + 0.020*"dollar" + 0.018*"license" + 0.017*"import" + 0.014*"security" + 0.014*"issue" + 0.011*"sale" + 0.010*"ly"</t>
+  </si>
+  <si>
+    <t>0.048*"import" + 0.045*"per" + 0.035*"cent" + 0.024*"exchange" + 0.020*"rate" + 0.019*"bank" + 0.017*"subject" + 0.017*"payment" + 0.016*"fund" + 0.016*"license"</t>
   </si>
 </sst>
 </file>
